--- a/docs/source/recursos/pec_bovino/tabla_cat_fv_bov_prec_precipitacion.xlsx
+++ b/docs/source/recursos/pec_bovino/tabla_cat_fv_bov_prec_precipitacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_bovino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC90A4-85AD-410B-B4E7-F91B513329B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88322A17-0CC6-4762-8F33-C68C9F408B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
   </bookViews>
@@ -53,28 +53,28 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Categoría</t>
-  </si>
-  <si>
     <t>Importancia</t>
   </si>
   <si>
     <t>FV</t>
   </si>
   <si>
-    <t>a) 551-626 mm</t>
-  </si>
-  <si>
-    <t>b) 626-778 mm</t>
-  </si>
-  <si>
-    <t>c) 778-930 mm</t>
-  </si>
-  <si>
-    <t>d) 930-1081 mm</t>
-  </si>
-  <si>
-    <t>e) 1081-1233 mm</t>
+    <t>Categoría (mm)</t>
+  </si>
+  <si>
+    <t>1081-1233</t>
+  </si>
+  <si>
+    <t>930-1081</t>
+  </si>
+  <si>
+    <t>778-930</t>
+  </si>
+  <si>
+    <t>626-778</t>
+  </si>
+  <si>
+    <t>551-626</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -604,12 +604,6 @@
         <f>VLOOKUP(C6,[1]clasificacion!$A$1:$C$6,3,FALSE)</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -681,9 +675,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51879D9F-AEAE-468A-9C2F-0276CDDA7063}">
           <x14:formula1>
-            <xm:f>[tabla_fv_bov_prec_precipitacion.xlsm]clasificacion!#REF!</xm:f>
+            <xm:f>'C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sectores\pec_bovino\funciones_valor\[tabla_fv_bov_prec_precipitacion.xlsm]clasificacion'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>C2:C4 C5:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
